--- a/notebooks/meta_output.xlsx
+++ b/notebooks/meta_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="97">
   <si>
     <t>BLOQUE</t>
   </si>
@@ -46,297 +46,228 @@
     <t>TOTAL FICHAS</t>
   </si>
   <si>
-    <t>0.0.8</t>
-  </si>
-  <si>
-    <t>0.1.11</t>
-  </si>
-  <si>
-    <t>0.0.13</t>
-  </si>
-  <si>
-    <t>0.2.12</t>
-  </si>
-  <si>
-    <t>0.2.6</t>
-  </si>
-  <si>
-    <t>0.2.5</t>
-  </si>
-  <si>
-    <t>0.1.4</t>
-  </si>
-  <si>
-    <t>0.1.12</t>
-  </si>
-  <si>
-    <t>0.0.7</t>
-  </si>
-  <si>
-    <t>0.3.14</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
-    <t>0.2.11</t>
-  </si>
-  <si>
-    <t>0.2.2</t>
-  </si>
-  <si>
-    <t>0.2.3</t>
-  </si>
-  <si>
-    <t>0.2.15</t>
-  </si>
-  <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
-    <t>0.3.8</t>
-  </si>
-  <si>
-    <t>0.1.6</t>
-  </si>
-  <si>
-    <t>0.0.11</t>
-  </si>
-  <si>
-    <t>0.2.14</t>
-  </si>
-  <si>
-    <t>0.0.15</t>
-  </si>
-  <si>
-    <t>0.1.14</t>
-  </si>
-  <si>
-    <t>0.0.9</t>
-  </si>
-  <si>
-    <t>0.1.8</t>
-  </si>
-  <si>
-    <t>0.3.2</t>
-  </si>
-  <si>
-    <t>0.2.1</t>
-  </si>
-  <si>
-    <t>0.2.10</t>
-  </si>
-  <si>
-    <t>0.3.12</t>
-  </si>
-  <si>
-    <t>0.3.4</t>
-  </si>
-  <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
-    <t>0.1.7</t>
-  </si>
-  <si>
-    <t>0.3.11</t>
-  </si>
-  <si>
-    <t>0.0.10</t>
-  </si>
-  <si>
-    <t>0.1.9</t>
-  </si>
-  <si>
-    <t>0.0.12</t>
-  </si>
-  <si>
-    <t>0.1.5</t>
-  </si>
-  <si>
-    <t>0.3.9</t>
-  </si>
-  <si>
-    <t>0.2.4</t>
-  </si>
-  <si>
-    <t>0.3.15</t>
-  </si>
-  <si>
-    <t>0.3.1</t>
-  </si>
-  <si>
-    <t>0.3.10</t>
-  </si>
-  <si>
-    <t>0.2.13</t>
-  </si>
-  <si>
-    <t>0.3.3</t>
-  </si>
-  <si>
-    <t>0.3.7</t>
-  </si>
-  <si>
-    <t>0.1.13</t>
-  </si>
-  <si>
-    <t>0.2.7</t>
-  </si>
-  <si>
-    <t>0.3.13</t>
-  </si>
-  <si>
-    <t>0.0.14</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
+    <t>DIA 0</t>
+  </si>
+  <si>
+    <t>PABELLON 0</t>
+  </si>
+  <si>
+    <t>BLOQUE 6</t>
+  </si>
+  <si>
+    <t>BLOQUE 7</t>
+  </si>
+  <si>
+    <t>BLOQUE 8</t>
+  </si>
+  <si>
+    <t>BLOQUE 9</t>
+  </si>
+  <si>
+    <t>BLOQUE 10</t>
+  </si>
+  <si>
+    <t>BLOQUE 11</t>
+  </si>
+  <si>
+    <t>BLOQUE 12</t>
+  </si>
+  <si>
+    <t>BLOQUE 13</t>
+  </si>
+  <si>
+    <t>BLOQUE 14</t>
+  </si>
+  <si>
+    <t>BLOQUE 15</t>
+  </si>
+  <si>
+    <t>PABELLON 1</t>
+  </si>
+  <si>
+    <t>PABELLON 2</t>
+  </si>
+  <si>
+    <t>BLOQUE 0</t>
+  </si>
+  <si>
+    <t>BLOQUE 1</t>
+  </si>
+  <si>
+    <t>BLOQUE 2</t>
+  </si>
+  <si>
+    <t>BLOQUE 4</t>
+  </si>
+  <si>
+    <t>BLOQUE 5</t>
+  </si>
+  <si>
+    <t>PABELLON 3</t>
+  </si>
+  <si>
+    <t>BLOQUE 3</t>
+  </si>
+  <si>
+    <t>MARCELA ANDREA JARA ROCHA</t>
+  </si>
+  <si>
+    <t>MIRCY GRACIELA NAVARRO PRADO</t>
+  </si>
+  <si>
+    <t>CRISTIAN MARCELO ANDRADE TAZAICO</t>
+  </si>
+  <si>
+    <t>MARTIN ALEJANDRO ARTIGAS SUAZO</t>
+  </si>
+  <si>
+    <t>MARTIN GONZALEZ MORIS</t>
+  </si>
+  <si>
+    <t>ALONSO DAMIAN NOVOA SAEZ</t>
+  </si>
+  <si>
+    <t>ESTEBAN ANDRES RIFFO FIERRO</t>
+  </si>
+  <si>
+    <t>LUCIA AMPARO CACERES VALENZUELA</t>
   </si>
   <si>
     <t>DAVID ALONSO CALDERON VALENZUELA</t>
   </si>
   <si>
+    <t>SOFIA EMILIA GODOY LAGOS</t>
+  </si>
+  <si>
+    <t>CARMEN GLORIA SANCHEZ PEREIRA</t>
+  </si>
+  <si>
+    <t>MATIAS FERNANDO SAEZ TORRES</t>
+  </si>
+  <si>
+    <t>GUILLERMO AARON NACO BARRA MORALES</t>
+  </si>
+  <si>
+    <t>CESAR FERRADA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>JUANA VALESCA LINQUEO ÑANCUL</t>
+  </si>
+  <si>
+    <t>DANITZA EVELYN HUENCHUMIL MILLACHEO</t>
+  </si>
+  <si>
     <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
   </si>
   <si>
-    <t>MARTIN GONZALEZ MORIS</t>
+    <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
+  </si>
+  <si>
+    <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
+  </si>
+  <si>
+    <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
   </si>
   <si>
     <t>FILOMENA DEL CARMEN  JARA GODOY</t>
   </si>
   <si>
+    <t>ISMAEL CONTRERAS RIQUELME</t>
+  </si>
+  <si>
+    <t>JOSE GARCES RIQUELME</t>
+  </si>
+  <si>
     <t>DESIDERIO AREVALO SOTO</t>
   </si>
   <si>
+    <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+  </si>
+  <si>
+    <t>MARIA TERESA LEAL FERNANDEZ</t>
+  </si>
+  <si>
+    <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+  </si>
+  <si>
+    <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+  </si>
+  <si>
     <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
   </si>
   <si>
-    <t>MIRCY GRACIELA NAVARRO PRADO</t>
-  </si>
-  <si>
-    <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
-  </si>
-  <si>
-    <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
+    <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+  </si>
+  <si>
+    <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+  </si>
+  <si>
+    <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+  </si>
+  <si>
+    <t>JOSE OSCAR ISLA ROCHA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+  </si>
+  <si>
+    <t>CATYBELL MARIA DURAN ULLOA</t>
+  </si>
+  <si>
+    <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+  </si>
+  <si>
+    <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA BEATRIZ BELTRAN DIAZ</t>
+  </si>
+  <si>
+    <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+  </si>
+  <si>
+    <t>PATRICIA RIQUELME GONZALEZ</t>
+  </si>
+  <si>
+    <t>MARIA TERESA ROMERO LEVIO</t>
   </si>
   <si>
     <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
   </si>
   <si>
-    <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
-  </si>
-  <si>
-    <t>JOSE EDGARDO ERICES VALDEBENITO</t>
-  </si>
-  <si>
-    <t>JOSE GARCES RIQUELME</t>
-  </si>
-  <si>
-    <t>JOSE OSCAR ISLA ROCHA</t>
-  </si>
-  <si>
-    <t>VALENTINA IGNACIA ORMEÑO HENRIQUEZ</t>
-  </si>
-  <si>
     <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
   </si>
   <si>
-    <t>CESAR FERRADA GUTIERREZ</t>
-  </si>
-  <si>
-    <t>SAMUEL ABRAHAN DAVILA LILLO</t>
-  </si>
-  <si>
-    <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
-  </si>
-  <si>
-    <t>ESTEBAN ANDRES RIFFO FIERRO</t>
-  </si>
-  <si>
-    <t>MACARENA ALEJANDRA GONZÁLEZ BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>ALONSO DAMIAN NOVOA SAEZ</t>
-  </si>
-  <si>
-    <t>KATHERINE SOLEDAD FLORES ESCALONA</t>
-  </si>
-  <si>
-    <t>PATRICIA RIQUELME GONZALEZ</t>
-  </si>
-  <si>
-    <t>MARIA TERESA LEAL FERNANDEZ</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+    <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+  </si>
+  <si>
+    <t>LAURA CID PONSOT</t>
+  </si>
+  <si>
+    <t>JOCELYN MARISELLA MUÑOZ JARA</t>
   </si>
   <si>
     <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
   </si>
   <si>
-    <t>NOEMI ALEJANDRA CIFUENTES SAN MARTÍN</t>
-  </si>
-  <si>
-    <t>MARCELA ANDREA JARA ROCHA</t>
-  </si>
-  <si>
-    <t>JOCELYN MARISELLA MUÑOZ JARA</t>
-  </si>
-  <si>
-    <t>MAURA MATUS NECUL</t>
-  </si>
-  <si>
-    <t>DAVID NICOLAS DIAZ CID</t>
-  </si>
-  <si>
-    <t>CRISTIAN MARCELO ANDRADE TAZAICO</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
-  </si>
-  <si>
-    <t>JONATHAN PHILLIP FLORES SEGUEL</t>
-  </si>
-  <si>
-    <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
-  </si>
-  <si>
-    <t>LAURA CID PONSOT</t>
-  </si>
-  <si>
-    <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
-  </si>
-  <si>
     <t>ANIBAL EDUARDO BURDILES MEDINA</t>
   </si>
   <si>
-    <t>ISMAEL CONTRERAS RIQUELME</t>
-  </si>
-  <si>
-    <t>ALEJANDRA MARISOL LIZANA MEZA</t>
-  </si>
-  <si>
-    <t>DAMARY DAMIANA AGUIRRE AGUIRRE</t>
-  </si>
-  <si>
-    <t>VIVIANA  ALEJANDRA CONTRERAS ERICES</t>
-  </si>
-  <si>
-    <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
-  </si>
-  <si>
     <t>MARIA ELENA PEREIRA JIMENEZ</t>
   </si>
   <si>
-    <t>VICENTE FABIAN ESCOBAR LUENGO</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+    <t>GENERAL_1</t>
   </si>
   <si>
     <t>INFANTIL_1</t>
   </si>
   <si>
+    <t>INFANTIL_2</t>
+  </si>
+  <si>
     <t>GENERAL_2</t>
   </si>
   <si>
@@ -346,43 +277,34 @@
     <t>OFTALMO_1</t>
   </si>
   <si>
-    <t>GENERAL_1</t>
+    <t>GINECO_1</t>
+  </si>
+  <si>
+    <t>GINECO_2</t>
+  </si>
+  <si>
+    <t>OTORRINO_1</t>
   </si>
   <si>
     <t>OTORRINO_2</t>
   </si>
   <si>
-    <t>GINECO_1</t>
-  </si>
-  <si>
-    <t>OTORRINO_1</t>
-  </si>
-  <si>
-    <t>INFANTIL_2</t>
-  </si>
-  <si>
-    <t>GINECO_2</t>
-  </si>
-  <si>
     <t>TRAUMATO_1</t>
   </si>
   <si>
-    <t>TRAUMATO_2</t>
+    <t>CIRUGIA GENERAL</t>
   </si>
   <si>
     <t>CIRUGIA INFANTIL</t>
   </si>
   <si>
-    <t>CIRUGIA GENERAL</t>
-  </si>
-  <si>
     <t>OFTALMOLOGIA</t>
   </si>
   <si>
+    <t>GINECOLOGIA</t>
+  </si>
+  <si>
     <t>OTORRINOLARINGOLOGIA</t>
-  </si>
-  <si>
-    <t>GINECOLOGIA</t>
   </si>
 </sst>
 </file>
@@ -740,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,96 +704,42 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -879,31 +747,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -911,31 +779,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -943,31 +811,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -975,31 +843,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1007,31 +875,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1039,31 +907,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1071,31 +939,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1103,31 +971,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1135,380 +1003,353 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -1516,86 +1357,59 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1607,283 +1421,283 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>4</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1895,94 +1709,94 @@
         <v>4</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
         <v>94</v>
       </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>120</v>
-      </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1991,155 +1805,128 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -2151,24 +1938,24 @@
         <v>2</v>
       </c>
       <c r="J44">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -2188,83 +1975,83 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2273,30 +2060,30 @@
         <v>6</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -2308,42 +2095,234 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>6</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
